--- a/va_facility_data_2025-02-20/Wood County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Wood%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Wood County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Wood%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rfb85bda2d9e0474891e43bdb77ab1c2d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R43d3c99f9d6e4d73b29124647acef626"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rae470ac063fc41ca97e25097f544e872"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Ra256a3ca2a6c4d4fb0f0ea7252a60546"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R62963ef0aaba4e83aa999036948adf78"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra39b72fddf5e4af38370e7e62f2e959f"/>
   </x:sheets>
 </x:workbook>
 </file>
